--- a/src/test/resources/Lists/ListOfRecipes.xlsx
+++ b/src/test/resources/Lists/ListOfRecipes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="161">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -44,33 +44,25 @@
     <t>Morbid condition</t>
   </si>
   <si>
+    <t>Recipe Url</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
     <t>3554</t>
   </si>
   <si>
     <t>Cabbage Jowar Muthias</t>
   </si>
   <si>
-    <t>Low Calorie Indian Snacks</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>grated cabbage, 
-jowar (white millet) flour, 
-low fat curds (dahi), 
-chopped coriander (dhania), 
-lemon juice, 
-ginger-green chilli paste, 
-garlic (lehsun) paste, 
-turmeric powder (haldi), 
-asafoetida (hing), 
-salt, 
-oil, 
-cumin seeds (jeera), 
-curry leaves (kadi patta), 
-chopped coriander (dhania), 
-green chutney</t>
+    <t>Low Calorie Indian Snacks, Indian Steamed Snacks, Steam, Saute, Indian Party, Steamer</t>
+  </si>
+  <si>
+    <t>Steamer</t>
+  </si>
+  <si>
+    <t>grated cabbage , jowar (white millet) flour , low fat curds (dahi) , chopped coriander (dhania) , lemon juice , ginger-green chilli paste , garlic (lehsun) paste , turmeric powder (haldi) , asafoetida (hing) , salt , oil , cumin seeds (jeera) , curry leaves (kadi patta) , chopped coriander (dhania) , green chutney</t>
   </si>
   <si>
     <t>10 mins</t>
@@ -79,32 +71,430 @@
     <t>29 mins</t>
   </si>
   <si>
-    <t>To make cabbage jowar muthias, combine the cabbage, jowar flour, curds, coriander, lemon juice, ginger-green chilli paste, garlic paste, turmeric powder, ¼ tsp of asafoetida and salt in a deep bowl and knead into a soft dough using approx. ¼ cup of water.
- cabbage jowar muthias
- Divide the dough into 2 equal portions and shape each portion into 125 mm. (5") cylindrical roll.
- Arrange both the rolls on a greased sieve and steam in a steamer for 20 to 25 minutes. Allow it to cool completely.
- Once cooled, cut each roll into 13 mm. (½”) thick slices and keep aside.
- Heat the oil in a broad non-stick pan and add the cumin seeds.
- When the seeds crackle, add the remaining ¼ tsp of asafoetida and curry leaves and sauté for a few seconds.
- Add the sliced muthias, mix well and cook on a medium flame for 2 to 3 minutes or till they turn light brown in colour, while tossing gently and occasionally.
- Garnish the cabbage jowar muthias with coriander and serve hot with green chutney.
- cabbage jowar muthias</t>
-  </si>
-  <si>
-    <t>Energy
- 146 cal
- Protein
- 4.6 g
- Carbohydrates
- 26.4 g
- Fiber
- 4.1 g
- Fat
- 2.4 g
- Cholesterol
- 0 mg
- Sodium
- 16.3 mg</t>
+    <t>To make cabbage jowar muthias, combine the cabbage, jowar flour, curds, coriander, lemon juice, ginger-green chilli paste, garlic paste, turmeric powder, ¼ tsp of asafoetida and salt in a deep bowl and knead into a soft dough using approx. ¼ cup of water., cabbage jowar muthias, Divide the dough into 2 equal portions and shape each portion into 125 mm. (5") cylindrical roll., Arrange both the rolls on a greased sieve and steam in a steamer for 20 to 25 minutes. Allow it to cool completely., Once cooled, cut each roll into 13 mm. (½”) thick slices and keep aside., Heat the oil in a broad non-stick pan and add the cumin seeds., When the seeds crackle, add the remaining ¼ tsp of asafoetida and curry leaves and sauté for a few seconds., Add the sliced muthias, mix well and cook on a medium flame for 2 to 3 minutes or till they turn light brown in colour, while tossing gently and occasionally., Garnish the cabbage jowar muthias with coriander and serve hot with green chutney., cabbage jowar muthias</t>
+  </si>
+  <si>
+    <t>Energy, 146 cal, Protein, 4.6 g, Carbohydrates, 26.4 g, Fiber, 4.1 g, Fat, 2.4 g, Cholesterol, 0 mg, Sodium, 16.3 mg</t>
+  </si>
+  <si>
+    <t>Diabetes, Hypertension, Hypertension, PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-jowar-muthias-3554r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes Eliminated  ,Hypertension Eliminated  ,Hypertension Add  grated cabbage , garlic (lehsun) paste ,PCOS Eliminated  </t>
+  </si>
+  <si>
+    <t>33147</t>
+  </si>
+  <si>
+    <t>Cabbage Jowar Muthias, How To Make Muthia At Home</t>
+  </si>
+  <si>
+    <t>Easy Indian Veg, Quick breakfast, Jain Breakfast, Breakfast Dhokla, Quick Evening Snacks</t>
+  </si>
+  <si>
+    <t>Quick Evening Snacks</t>
+  </si>
+  <si>
+    <t>grated cabbage , jowar (white millet) flour , curd (dahi) , chopped coriander (dhania) , lemon juice , ginger-green chilli paste , garlic (lehsun) paste , turmeric powder (haldi) , asafoetida (hing) , sugar , salt , oil , cumin seeds (jeera) , curry leaves (kadi patta) , chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>To make cabbage jowar muthias, combine the cabbage, jowar flour, curds, coriander, lemon juice, ginger-green chilli paste, garlic paste, turmeric powder, ¼ tsp of asafoetida, sugar and salt in a deep bowl and knead into a soft dough using approx. ¼ cup of water., cabbage jowar muthias, Divide the dough into 2 equal portions and shape each portion into 125 mm. (5") cylindrical roll., Arrange both the rolls on a greased sieve and steam in a steamer for 20 to 25 minutes. Allow it to cool completely., Once cooled, cut each roll into 13 mm. (½”) thick slices and keep aside., Heat the oil in a broad non-stick pan and add the cumin seeds., When the seeds crackle, add the remaining ¼ tsp of asafoetida and curry leaves and sauté for a few seconds., Add the sliced cabbage jowar muthias, mix well and cook on a medium flame for 2 to 3 minutes or till they turn light brown in colour, while tossing gently and occasionally., cabbage jowar muthias, Garnish the cabbage jowar muthias with coriander and serve hot with green chutney., cabbage jowar muthias</t>
+  </si>
+  <si>
+    <t>Energy, 347 cal, Protein, 7 g, Carbohydrates, 47.6 g, Fiber, 6.1 g, Fat, 13.7 g, Cholesterol, 4 mg, Sodium, 16.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-jowar-muthias-how-to-make-muthia-at-home-33147r</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>Jowar, Bajra Spring Onion Roti</t>
+  </si>
+  <si>
+    <t>Quick breakfast, Breakfast Theplas, Parathas, Indian Rotis, All-in-one Parathas, Tava, Pregnancy First Trimester</t>
+  </si>
+  <si>
+    <t>Pregnancy First Trimester</t>
+  </si>
+  <si>
+    <t>jowar (white millet) flour , bajra (black millet) flour , chopped spring onions whites , chopped green chillies , chilli powder , turmeric powder (haldi) , coriander (dhania) powder , cumin seeds (jeera) powder , oil , salt , jowar (white millet) flour , oil</t>
+  </si>
+  <si>
+    <t>To make jowar bajra spring onion roti, combine all the ingredients in a deep bowl and knead into a soft dough using enough warm water., jowar bajra spring onion roti, Cover with a lid and keep aside for 10 minutes., Divide the dough into 5 equal portions., Roll out a portion of the dough into a 125 mm. (5”) diameter circle using a little jowar flour for rolling., Heat a non-stick tava (griddle) and cook the roti, using ½ tsp of oil, till it turns golden brown in colour from both the sides., Repeat steps 4 and 5 to make 4 more rotis., Serve the jowar bajra spring onion roti immediately., jowar bajra spring onion roti</t>
+  </si>
+  <si>
+    <t>Energy, 101 cal, Protein, 2.2 g, Carbohydrates, 13.9 g, Fiber, 2.2 g, Fat, 4.1 g, Cholesterol, 0 mg, Sodium, 2 mg</t>
+  </si>
+  <si>
+    <t>Diabetes, Hypothyroidism, Hypertension, PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-bajra-spring-onion-roti-2979r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes Eliminated  ,Hypothyroidism Eliminated  ,Hypertension Eliminated  ,PCOS Eliminated  </t>
+  </si>
+  <si>
+    <t>22358</t>
+  </si>
+  <si>
+    <t>Jowar Pyaz ki Roti, Low Acidity Recipe</t>
+  </si>
+  <si>
+    <t>Breakfast Theplas, Parathas, Indian Rotis, All-in-one Parathas, Tava, Healthy Indian Acidity recipes, Malaria Diet</t>
+  </si>
+  <si>
+    <t>Malaria Diet</t>
+  </si>
+  <si>
+    <t>jowar (white millet) flour , chopped spring onions whites , green chilli paste , oil , salt , jowar (white millet) flour , oil</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>To make jowar pyaz ki roti, combine all the ingredients in a deep bowl and knead into a soft dough using enough hot water., jowar pyaz ki roti, Divide the dough into 4 equal portions and roll each portion into a 150 mm. (6") diameter thick circle using a little jowar flour for rolling., Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till brown spots appear on both the sides., Serve the jowar pyaz ki roti immediately., jowar pyaz ki roti</t>
+  </si>
+  <si>
+    <t>Energy, 110 cal, Protein, 2.7 g, Carbohydrates, 18.2 g, Fiber, 2.5 g, Fat, 3 g, Cholesterol, 0 mg, Sodium, 2.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-pyaz-ki-roti-low-acidity-recipe-22358r</t>
+  </si>
+  <si>
+    <t>42672</t>
+  </si>
+  <si>
+    <t>Jowar and Moong Dal Khichdi</t>
+  </si>
+  <si>
+    <t>One Dish Vegetarian Meals, One Meal Dinner, Indian Tiffin Box, Lunch box, Dabba, collection of khichdi recipes, Healthy Dinner Weight Loss, Healthy Indian Lunch Weight Loss</t>
+  </si>
+  <si>
+    <t>Healthy Indian Lunch Weight Loss</t>
+  </si>
+  <si>
+    <t>jowar (white millet) , yellow moong dal (split yellow gram) , salt , ghee , cumin seeds (jeera) , asafoetida (hing) , turmeric powder (haldi)</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>24 mins</t>
+  </si>
+  <si>
+    <t>To make jowar and moong dal khichdi, clean, wash and soak the jowar in enough water in a deep bowl overnight or at least for 10 hours., jowar and moong dal khichdi, Next day, drain it and discard the water., Combine the jowar, moong dal, salt and 2 ½ cups of water in a pressure cooker, mix well and pressure cook for 7 whistles., Allow the steam to escape before opening the lid. Keep aside., For the tempering, heat the ghee in a small non-stick pan and add the cumin seeds., When the seeds crackle, add the asafoetida, turmeric powder and sauté for a few seconds., Add the tempering to the khichdi, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally., Serve the jowar and moong dal khichdi immediately., jowar and moong dal khichdi</t>
+  </si>
+  <si>
+    <t>Energy, 160 cal, Protein, 6.8 g, Carbohydrates, 26.3 g, Fiber, 3.5 g, Fat, 3.1 g, Cholesterol, 0 mg, Sodium, 6.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-and-moong-dal-khichdi-42672r</t>
+  </si>
+  <si>
+    <t>41008</t>
+  </si>
+  <si>
+    <t>Mini Jowar Apple and Walnut Pancake</t>
+  </si>
+  <si>
+    <t>Breakfast Chillas, Indian Pancakes, Evening Tea Snacks, Indian Healthy Veg Snack, Arthritis Diet, Pregnancy Iron Rich Indian Foods, Pregnancy Desserts, Pregnancy Snacks</t>
+  </si>
+  <si>
+    <t>Pregnancy Snacks</t>
+  </si>
+  <si>
+    <t>jowar (white millet) flour , grated apples , chopped walnuts (akhrot) , chopped almonds (badam) , milk , grated jaggery (gur) , ghee</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and mix well., Heat a non-stick mini uttapa pan and grease it with ¼ tsp of ghee., When hot, pour a spoonful of batter in each of the 7 uttapa moulds and spread it evenly to make a 75 mm. (3”) diameter round., Cook all the pancakes, using 1 tsp of ghee, till they turn golden brown in colour from both the sides., Repeat steps 2 to 4 to make 14 more pancakes in 2 more batches., Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy, 56 cal, Protein, 1.1 g, Carbohydrates, 5.3 g, Fiber, 0.4 g, Fat, 3.2 g, Cholesterol, 1.2 mg, Sodium, 2.2 mg</t>
+  </si>
+  <si>
+    <t>Hypothyroidism, Hypothyroidism, Hypertension, PCOS, allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mini-jowar-apple-and-walnut-pancake-41008r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothyroidism Eliminated  ,Hypothyroidism Add   chopped walnuts (akhrot) ,Hypertension Eliminated  ,PCOS Eliminated  ,allergies Add   chopped walnuts (akhrot) , chopped almonds (badam) , milk </t>
+  </si>
+  <si>
+    <t>39153</t>
+  </si>
+  <si>
+    <t>Jowar Khakhra</t>
+  </si>
+  <si>
+    <t>Low Cal Breakfast, Breakfast Khakhras, Tava, High Fiber Breakfast, Indian Travel Food Dry Snacks</t>
+  </si>
+  <si>
+    <t>Indian Travel Food Dry Snacks</t>
+  </si>
+  <si>
+    <t>jowar (white millet) flour , sesame seeds (til) , oil , ginger-green chilli paste , garlic (lehsun) paste , salt , jowar (white millet) flour , ghee , jowar (white millet) flour , sesame seeds (til) , oil , ginger-green chilli paste , garlic (lehsun) paste , salt</t>
+  </si>
+  <si>
+    <t>58 mins</t>
+  </si>
+  <si>
+    <t>For jowar khakhra on tava, combine all the ingredients in a deep bowl and knead into a soft dough using enough water., jowar khakhra on tava, Divide the dough into 8 equal portions., Flatten a portion of the dough in between your palms (upto 2” in diameter), roll it into 100 mm. (4") in diameter with the help of jowar flour. Place it on a hot non-stick tava (griddle). Allow the khakhra to cook on a medium flame for 1 minute., Flip the khakhra and cook on another side on a medium flame for 1 minute., Lower the flame and apply ½ tsp ghee on each side. Keep pressing the khakhra with a ‘khakhra press’ continuously while flipping it every 30 seconds hereafter, till the khakhra turns crisp and golden brown in colour from both the sides. It would take approx. 5 to 6 minutes at this stage., Repeat steps 3 to 5 to make 7 more jowar khakhras., Cool completely jowar khakhra on tava and store in an air-tight container. They stay fresh upto a week., jowar khakhra on tava, For jowar khakhra in khakhra maker, combine all the ingredients in a deep bowl and knead into a soft dough using enough water., jowar khakhra in khakhra maker, Divide the dough into 8 equal portions., Flatten a portion of the dough in between your palms (upto 2” in diameter) and place it in the centre of a pre-hated khakhra maker., Close the lid of the khakhra maker and cook for 1 minute. Do not lock the lid of the khakhra maker, else the khakhra might break., Open the lid, flip the khakhra and cook on another side for 30 seconds., Keep opening the lid and flipping the khakhra every 20 seconds hereafter, till the khakhra turns crisp and golden brown in colour from both the sides. It would take approx. 2 to 2½ minutes at this stage., Repeat steps 3 to 5 to make 7 more jowar khakhras., Cool jowar khakhra in khakhra maker completely and store in an air-tight container. They stay fresh upto a week., jowar khakhra in khakhra maker</t>
+  </si>
+  <si>
+    <t>Energy, 79 cal, Protein, 1.6 g, Carbohydrates, 8 g, Fiber, 1.5 g, Fat, 4.5 g, Cholesterol, 0 mg, Sodium, 1.1 mg</t>
+  </si>
+  <si>
+    <t>Diabetes, Hypothyroidism, Hypertension, Hypertension, PCOS, allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-khakhra-39153r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes Eliminated  ,Hypothyroidism Eliminated  ,Hypertension Eliminated  ,Hypertension Add   garlic (lehsun) paste , garlic (lehsun) paste ,PCOS Eliminated  ,allergies Add   sesame seeds (til) , sesame seeds (til) </t>
+  </si>
+  <si>
+    <t>40445</t>
+  </si>
+  <si>
+    <t>Mini Baked Moong Dal and Jowar Puri</t>
+  </si>
+  <si>
+    <t>Indian Jar Snacks, Baked, Oven, Teething Recipes for Babies, Healthy Indian Acidity recipes, Pregnancy Recipes to overcome heartburn, Acidity Breakfast and Snacks</t>
+  </si>
+  <si>
+    <t>Acidity Breakfast and Snacks</t>
+  </si>
+  <si>
+    <t>yellow moong dal (split yellow gram) , jowar (white millet) flour , oil , chilli powder , cumin seeds (jeera) powder , turmeric powder (haldi) , asafoetida (hing) , freshly ground black pepper (kalimirch) , salt</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Blend the moong dal in a mixer to a smooth powder., Combine all the ingredients, including the moong dal powder, in a deep bowl and knead into a stiff dough using enough water., Divide the dough into 20 equal portions and roll out each portion into a 50 mm. (2”) diameter circle without using any flour for rolling, Prick each rolled out portion with a fork at regular intervals., Arrange them on a greased baking tray and bake in a pre-heated oven at 180°c (360°f) for 15 minutes, turning them once after 10 minutes., Cool slightly and serve or store in an air-tight container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy, 13 cal, Protein, 0.6 g, Carbohydrates, 2 g, Fiber, 0.3 g, Fat, 0.3 g, Cholesterol, 0 mg, Sodium, 39.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mini-baked-moong-dal-and-jowar-puri-40445r</t>
+  </si>
+  <si>
+    <t>38840</t>
+  </si>
+  <si>
+    <t>Jowar Porridge for Babies</t>
+  </si>
+  <si>
+    <t>Mixer, Non-stick Pan, Recipes for Weaning, Recipes for Weaning (8 to 9 months), Cereals and Pulses for 8 to 9 months Baby, Babies, Indian Cancer Patients</t>
+  </si>
+  <si>
+    <t>Indian Cancer Patients</t>
+  </si>
+  <si>
+    <t>jowar (white millet) flour , ghee , dates (khajur)</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>To make jowar porridge for babies, combine the dates and 2 tbsp of warm water in a bowl and keep aside to soak for 10 minutes., jowar porridge for babies, Blend it in a mixer till smooth without draining the water. Keep aside., Heat the ghee in a non-stick pan, add the jowar flour and cook on a medium flame for 2 minutes, while stirring continuously., Add the dates purée and ¾ cup of water, mix well using a whisk and cook on a medium flame for 1 minute, while stirring continuously. Serve the jowar porridge for babies lukewarm., jowar porridge for babies</t>
+  </si>
+  <si>
+    <t>Energy, 160 cal, Protein, 2.7 g, Carbohydrates, 24.9 g, Fiber, 3.2 g, Fat, 5.5 g, Cholesterol, 0 mg, Sodium, 2.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-porridge-for-babies-38840r</t>
+  </si>
+  <si>
+    <t>5699</t>
+  </si>
+  <si>
+    <t>Saatdhan Paratha</t>
+  </si>
+  <si>
+    <t>All-in-one Parathas, Indian Tawa, Tava, Quick Rotis / Parathas, Pregnancy Vitamin B Complex Rich, Protein Rich foods for Pregnancy, Home Remedies Protein Rich</t>
+  </si>
+  <si>
+    <t>Home Remedies Protein Rich</t>
+  </si>
+  <si>
+    <t>whole wheat flour (gehun ka atta) , jowar (white millet) flour , bajra (black millet) flour , ragi (nachni / red millet) flour , besan (bengal gram flour) , maize flour (makai ka atta) , rice flour (chawal ka atta) , grated bottle gourd (doodhi / lauki) , grated carrot , chopped coriander (dhania) , garlic (lehsun) paste , turmeric powder (haldi) , chilli powder , salt , whole wheat flour (gehun ka atta) , oil</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and knead into a soft dough using enough water., Divide the dough into 10 equal portions and roll out each portion into a 125 mm. (5?) diameter circle using a little whole wheat flour for rolling., Heat a non-stick tava (griddle) and cook each paratha, using ¼ tsp of oil, till it turns golden brown in colour from both the sides., Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy, 80 cal, Protein, 2.1 g, Carbohydrates, 14 g, Fiber, 2.3 g, Fat, 1.8 g, Cholesterol, 0 mg, Sodium, 5.8 mg</t>
+  </si>
+  <si>
+    <t>Hypothyroidism, Hypertension, Hypertension, PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/saatdhan-paratha-5699r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypothyroidism Eliminated  ,Hypertension Eliminated  ,Hypertension Add   garlic (lehsun) paste ,PCOS Eliminated  </t>
+  </si>
+  <si>
+    <t>22217</t>
+  </si>
+  <si>
+    <t>Soya Tur Dal Roti</t>
+  </si>
+  <si>
+    <t>Indian Rotis, Indian Tawa, Tava, Healthy Foods for Kids, Diabetic Rotis and Parathas, Zero Oil Rotis and Parathas, High Protein Rotis &amp; Parathas</t>
+  </si>
+  <si>
+    <t>High Protein Rotis &amp; Parathas</t>
+  </si>
+  <si>
+    <t>soya flour , cooked toovar (arhar) dal , jowar (white millet) flour , whole wheat flour (gehun ka atta) , turmeric powder (haldi) , chopped coriander (dhania) , chilli powder , coriander (dhania) powder , garlic (lehsun) paste , salt , whole wheat flour (gehun ka atta)</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a bowl and knead into soft, smooth dough, using enough water., Divide the dough into 6 equal portions., Roll out again into a circle of 125 mm. (5") diameter, using whole wheat flour., Place the roti on a non-stick tava (griddle). Turn over in a few seconds., Cook the other side for a few more seconds., Lift the roti with a pair of flat tongs and roast over an open flame till brown spots appear on both the sides., Repeat with the remaining portions to make 5 more rotis., Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy, 56 cal, Protein, 2.8 g, Carbohydrates, 9.7 g, Fiber, 1.6 g, Fat, 0.8 g, Cholesterol, 0 mg, Sodium, 2.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/soya-tur-dal-roti-22217r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes Eliminated  ,Hypothyroidism Eliminated  ,Hypertension Eliminated  ,Hypertension Add   garlic (lehsun) paste ,PCOS Eliminated  ,allergies Add  soya flour </t>
+  </si>
+  <si>
+    <t>22351</t>
+  </si>
+  <si>
+    <t>Nutritious Chilla</t>
+  </si>
+  <si>
+    <t>Breakfast Chillas, Indian Pancakes, Quick Evening Snacks, Indian Snacks for Entertaining, Chaat, Evening Tea Snacks</t>
+  </si>
+  <si>
+    <t>Evening Tea Snacks</t>
+  </si>
+  <si>
+    <t>jowar (white millet) flour , whole wheat flour (gehun ka atta) , ragi (nachni / red millet) flour , chopped onions , chopped tomatoes , chopped coriander (dhania) , green chilli paste , salt , oil</t>
+  </si>
+  <si>
+    <t>To make nutritious chilla, combine all the ingredients in a deep bowl along with approx. 1 1/4 cup of water to make a thin batter., nutritious chilla, Heat a non-stick tava (griddle) and grease it with ¼ tsp of oil., Pour a ladleful of the batter on tava (griddle) and spread it evenly to make a 125 mm. (5”) diameter thin circle and cook on a medium flame using ¼ tsp of oil till both the sides are golden brown in colour., Repeat with the remaining batter to make 3 more chillas., Serve the nutritious chilla immediately with minty green chutney., nutritious chilla</t>
+  </si>
+  <si>
+    <t>Energy, 98 cal, Protein, 2.5 g, Carbohydrates, 18 g, Fiber, 2.9 g, Fat, 1.9 g, Cholesterol, 0 mg, Sodium, 5.5 mg</t>
+  </si>
+  <si>
+    <t>Diabetes, Hypothyroidism, Hypertension, Hypertension, PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nutritious-chilla-22351r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes Eliminated  ,Hypothyroidism Eliminated  ,Hypertension Eliminated  ,Hypertension Add   chopped tomatoes ,PCOS Eliminated  </t>
+  </si>
+  <si>
+    <t>38636</t>
+  </si>
+  <si>
+    <t>Multigrain Dhebra ( Gluten Free Recipe)</t>
+  </si>
+  <si>
+    <t>Deep-fried Indian Starters, Evening Tea Snacks, Deep Fry, Kadai Veg, Gluten Free Indian Snacks</t>
+  </si>
+  <si>
+    <t>Gluten Free Indian Snacks</t>
+  </si>
+  <si>
+    <t>chopped fenugreek (methi) , bajra (black millet) flour , jowar (white millet) flour , besan (bengal gram flour) , chilli powder , asafoetida (hing) , curds (dahi) , ginger-green chilli paste , garlic (lehsun) paste , sugar , salt , oil , curd</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients along with oil in a deep bowl to make a soft dough, using enough water., Divide the dough into 20 equal portions. Pat a portion of the dough in between your palm to make a 50 mm. (2”) diameter and 1 cm thick circle., Heat the oil in a kadhai and deep-fry the dhebras , a few at a time,till they are golden brown in colour from both sides., Serve hot with fresh curds.</t>
+  </si>
+  <si>
+    <t>Energy, 46 cal, Protein, 1 g, Carbohydrates, 5 g, Fiber, 0.9 g, Fat, 2.4 g, Cholesterol, 0.2 mg, Sodium, 2.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/multigrain-dhebra----gluten-free-recipe-38636r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes Eliminated  ,Hypertension Eliminated  ,Hypertension Add   garlic (lehsun) paste ,PCOS Eliminated  </t>
+  </si>
+  <si>
+    <t>42338</t>
+  </si>
+  <si>
+    <t>Multigrain Healthy Cracker, Lactose Free</t>
+  </si>
+  <si>
+    <t>Kids Recipes, Healthy Indian Recipes, eggless Biscuits, Healthy Foods for Kids, Kids Tiffin Box, Finger Foods for Babies, Toddlers and Kids, Kids Jar Snacks</t>
+  </si>
+  <si>
+    <t>Kids Jar Snacks</t>
+  </si>
+  <si>
+    <t>whole wheat flour (gehun ka atta) , bajra (black millet) flour , jowar (white millet) flour , flax seeds powder , salt , olive oil , whole wheat flour (gehun ka atta)</t>
+  </si>
+  <si>
+    <t>To make multigrain healthy cracker, combine all the ingredients in a deep bowl and knead into a soft dough using enough water., Divide the dough into 2 equal portions., Roll a portion of the dough into a 250 mm. (10”) x 250 mm. (10”) square using a little whole wheat flour for rolling., Cut into 16 equal pieces using a sharp knife., Place them on a baking tray and bake in a pre-heated oven at 180°c (360°f) for 10 to 12 minutes., Repeat steps 3 to 5 to make 16 more crackers in 1 more batch., Cool completely and store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy, 16 cal, Protein, 0.4 g, Carbohydrates, 2.3 g, Fiber, 0.3 g, Fat, 0.5 g, Cholesterol, 0 mg, Sodium, 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/multigrain-healthy-cracker-lactose-free-42338r</t>
+  </si>
+  <si>
+    <t>42337</t>
+  </si>
+  <si>
+    <t>Lactose Free Chocolate Cookie</t>
+  </si>
+  <si>
+    <t>Indian Jar Snacks, Oven, Sweet Recipes for Kids, Kids Jar Snacks, Lactose Free Dairy Free, Lactose Free Dairy Free Desserts, Lactose Free Dairy Free Cookies</t>
+  </si>
+  <si>
+    <t>Lactose Free Dairy Free Cookies</t>
+  </si>
+  <si>
+    <t>whole wheat flour (gehun ka atta) , jowar (white millet) flour , cocoa powder , chopped dates (khajur) , powdered sugar , baking powder , baking soda , salt , olive oil , cinnamon (dalchini) powder , vanilla essence , water</t>
+  </si>
+  <si>
+    <t>Combine all the ingredients in a deep bowl and mix well., Add the prepared mixture and knead into a soft dough., Divide the dough into 16 equal portions., Roll each portion of the dough into a 50 mm. (2”) diameter flat circle., Bake them in a pre-heated oven at 180°c (360°f) for 20 minutes., Cool completely and store in an air-tight container. To be mixed together into a mixture</t>
+  </si>
+  <si>
+    <t>Energy, 51 cal, Protein, 0.8 g, Carbohydrates, 7.5 g, Fiber, 0.4 g, Fat, 2 g, Cholesterol, 0 mg, Sodium, 1.1 mg</t>
+  </si>
+  <si>
+    <t>Hypertension, Hypertension</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lactose-free-chocolate-cookie-42337r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypertension Eliminated  ,Hypertension Add   cinnamon (dalchini) powder </t>
   </si>
 </sst>
 </file>
@@ -143,8 +533,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -152,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -189,37 +579,581 @@
       <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="1">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="1">
+      <c r="G3" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>10</v>
+      <c r="H3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Lists/ListOfRecipes.xlsx
+++ b/src/test/resources/Lists/ListOfRecipes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="219">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Recipe Url</t>
   </si>
   <si>
-    <t>Recipe Type</t>
-  </si>
-  <si>
     <t>Flag</t>
   </si>
   <si>
@@ -89,10 +86,10 @@
     <t>Cabbage Jowar Muthias</t>
   </si>
   <si>
-    <t>Healthy</t>
-  </si>
-  <si>
-    <t>Diabetes</t>
+    <t>Not mentioned</t>
+  </si>
+  <si>
+    <t>Veg</t>
   </si>
   <si>
     <t>grated cabbage ,
@@ -148,14 +145,6 @@
     <t>https://www.tarladalal.com/cabbage-jowar-muthias-3554r</t>
   </si>
   <si>
-    <t>Low Calorie Indian Snacks,
- Indian Steamed Snacks,
- Steam,
- Saute,
- Indian Party,
- Steamer</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -170,6 +159,9 @@
   </si>
   <si>
     <t>Cabbage Jowar Muthias, How To Make Muthia At Home</t>
+  </si>
+  <si>
+    <t>Snacks</t>
   </si>
   <si>
     <t>grated cabbage ,
@@ -214,13 +206,6 @@
     <t>https://www.tarladalal.com/cabbage-jowar-muthias-how-to-make-muthia-at-home-33147r</t>
   </si>
   <si>
-    <t>Easy Indian Veg,
- Quick breakfast,
- Jain Breakfast,
- Breakfast Dhokla,
- Quick Evening Snacks</t>
-  </si>
-  <si>
     <t>22358</t>
   </si>
   <si>
@@ -265,18 +250,13 @@
     <t>https://www.tarladalal.com/jowar-pyaz-ki-roti-low-acidity-recipe-22358r</t>
   </si>
   <si>
-    <t>Breakfast Theplas, Parathas,
- Indian Rotis,
- All-in-one Parathas,
- Tava,
- Healthy Indian Acidity recipes,
- Malaria Diet</t>
-  </si>
-  <si>
     <t>42672</t>
   </si>
   <si>
     <t>Jowar and Moong Dal Khichdi</t>
+  </si>
+  <si>
+    <t>Lunch</t>
   </si>
   <si>
     <t>jowar (white millet) ,
@@ -318,12 +298,1044 @@
     <t>https://www.tarladalal.com/jowar-and-moong-dal-khichdi-42672r</t>
   </si>
   <si>
-    <t>One Dish Vegetarian Meals,
- One Meal Dinner,
- Indian Tiffin Box, Lunch box, Dabba,
- collection of khichdi recipes,
- Healthy Dinner Weight Loss,
- Healthy Indian Lunch Weight Loss</t>
+    <t>547</t>
+  </si>
+  <si>
+    <t>Nylon Khaman Dhokla (gujarati Recipe)</t>
+  </si>
+  <si>
+    <t>besan (bengal gram flour) ,
+ semolina (rava / sooji) ,
+ sugar ,
+ ginger-green chilli paste ,
+ lemon juice ,
+ salt ,
+ fruit salt ,
+ oil ,
+ mustard seeds ( rai / sarson) ,
+ sesame seeds (til) ,
+ asafoetida (hing) ,
+ curry leaves (kadi patta) ,
+ chopped green chillies ,
+ chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>To make combine the besan, semolina, sugar, ginger-green chilli paste, lemon juice and salt with approx. ¾ cup of water in a deep bowl and mix well using a whisk to get a smooth batter.,
+Just before steaming, add the fruit salt and mix lightly.,
+Pour the mixture immediately to a greased 175 mm. (7") diameter thali and spread evenly by rotating the thali clockwise.,
+Steam in a steamer for 10 to 12 minutes or till the dhoklas are cooked. Keep aside.,
+Heat the oil in a small non-stick pan and add the mustard seeds.,
+When the seeds crackle, add the sesame seeds, asafoetida, curry leaves and green chillies and sauté on a medium flame for 30 seconds.,
+Remove from the flame, add ½ cup of water and mix well.,
+Pour the tempering over the prepared nylon khamman dhokla and spread it evenly.,
+nylon khamman dhokla,
+Cut the nylon khamman dhokla into pieces, garnish with coriander and serve immediately with green chutney.,
+nylon khamman dhokla</t>
+  </si>
+  <si>
+    <t>Energy: 81 cal,
+ Protein: 3.6 g,
+ Carbohydrates: 12.1 g,
+ Fiber: 2.5 g,
+ Fat: 2 g,
+ Cholesterol: 0 mg,
+ Sodium: 12.3 mg</t>
+  </si>
+  <si>
+    <t>Diabetes,
+Hypertension,
+PCOS,
+Allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nylon-khaman-dhokla-gujarati-recipe-547r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ sesame seeds (til) </t>
+  </si>
+  <si>
+    <t>32601</t>
+  </si>
+  <si>
+    <t>Spicy Tava Idlis (100 Calorie Snacks)</t>
+  </si>
+  <si>
+    <t>oil ,
+ chopped onions ,
+ chopped tomatoes ,
+ grated ginger (adrak) ,
+ turmeric powder (haldi) ,
+ black salt (sanchal) ,
+ pav bhaji masala ,
+ lemon juice ,
+ salt ,
+ idlis ,
+ chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Heat the oil in a broad non-stick pan, add the onions and sauté on a medium flame till they turn translucent. Sprinkle a little water to avoid the onions from burning.,
+Add the tomatoes, ginger and turmeric powder and cook on a medium flame till the oil separates.,
+Add the black salt, pav bhaji masala, salt and lemon juice and mix well.,
+Add the idlis and toss well.,
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Diabetes,
+Hypothyroidism,
+Hypertension,
+Hypertension,
+PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spicy-tava-idlis-100-calorie-snacks-32601r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ chopped tomatoes </t>
+  </si>
+  <si>
+    <t>22307</t>
+  </si>
+  <si>
+    <t>Semiya Vegetable Upma, Vermicelli Veg Upma Low Salt</t>
+  </si>
+  <si>
+    <t>whole wheat vermicelli (semiya) ,
+ coconut oil ,
+ mustard seeds ( rai / sarson) ,
+ urad dal (split black lentils) ,
+ chopped onions ,
+ chopped green chillies ,
+ curry leaves (kadi patta) ,
+ chopped carrot ,
+ green peas ,
+ salt ,
+ lemon juice</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>To make semiya veg upma, heat a broad non-stick pan, add the vermicelli and dry roast it on medium flame for 3 minutes or till it turns golden brown in colour. Remove from the flame and keep aside.,
+semiya veg upma,
+Heat the oil in the same broad non-stick pan and add the mustard seeds and urad dal and salute on a medium flame for 30 seconds.,
+When the seeds crackle, add the onions, green chillies and curry leaves and sauté on medium flame for 2 minutes.,
+Add the carrots, peas and ¼ cup water and mix well. Cover with a lid and cook on medium flame for 4 minutes or till the vegetables get cooked, while stirring occasionally.,
+Add the vermicelli, 1 cup of hot water and salt and mix well. Cover with a lid and cook on medium flame for another 6 minutes, while stirring occasionally.,
+Switch off the flame, add the lemon juice and mix well.,
+Serve the semiya veg upma hot.,
+semiya veg upma</t>
+  </si>
+  <si>
+    <t>Energy: 126 cal,
+ Protein: 3.8 g,
+ Carbohydrates: 19.7 g,
+ Fiber: 3.8 g,
+ Fat: 3.6 g,
+ Cholesterol: 0 mg,
+ Sodium: 141.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/semiya-vegetable-upma-vermicelli-veg-upma-low-salt-22307r</t>
+  </si>
+  <si>
+    <t>40185</t>
+  </si>
+  <si>
+    <t>Onion Tomato Koshimbir</t>
+  </si>
+  <si>
+    <t>chopped onions ,
+ chopped tomatoes ,
+ chopped coriander (dhania) ,
+ salt ,
+ oil ,
+ mustard seeds ( rai / sarson) ,
+ asafoetida (hing) ,
+ chopped green chillies</t>
+  </si>
+  <si>
+    <t>1 mins</t>
+  </si>
+  <si>
+    <t>To make onion tomato koshimbir, combine the onions, tomatoes, coriander and salt in a deep bowl and mix well. Keep aside.,
+onion tomato koshimbir,
+Heat the oil in a small non-stick pan and add the mustard seeds.,
+When the seeds crackle, add the asafoetida, green chillies and sauté on a medium flame for a few seconds.,
+Pour the tempering over the tomato-onion mixture and mix well.,
+Serve the onion tomato koshimbir immediately.,
+onion tomato koshimbir</t>
+  </si>
+  <si>
+    <t>Energy: 42 cal,
+ Protein: 0.7 g,
+ Carbohydrates: 4.9 g,
+ Fiber: 1 g,
+ Fat: 2.1 g,
+ Cholesterol: 0 mg,
+ Sodium: 7.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/onion-tomato-koshimbir-40185r</t>
+  </si>
+  <si>
+    <t>40323</t>
+  </si>
+  <si>
+    <t>How To Sprout Moong, Mung Beans</t>
+  </si>
+  <si>
+    <t>moong (whole green gram) ,
+ salt ,
+ turmeric powder (haldi)</t>
+  </si>
+  <si>
+    <t>To make healthy mung beans sprouts, combine the moong and enough water in a deep bowl, cover with a lid and keep aside to soak for 6 hours.,
+healthy mung beans sprouts,
+Drain completely and tie them in a muslin cloth. Keep aside in a warm place to sprout for 10 to 12 hours.,
+Combine the moong sprouts, 1¼ cups of water, salt and turmeric powder in a deep non-stick pan and mix well.,
+Cover with a lid and cook on a medium flame for 15 minutes, while stirring occasionally.,
+Use the healthy mung beans sprouts as required.,
+healthy mung beans sprouts</t>
+  </si>
+  <si>
+    <t>Energy: 256 cal,
+ Protein: 18.4 g,
+ Carbohydrates: 43.5 g,
+ Fiber: 12.8 g,
+ Fat: 1 g,
+ Cholesterol: 0 mg,
+ Sodium: 21.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/how-to-sprout-moong-mung-beans-40323r</t>
+  </si>
+  <si>
+    <t>39683</t>
+  </si>
+  <si>
+    <t>Cabbage Masala ( Healthy Sabzi)</t>
+  </si>
+  <si>
+    <t>shredded cabbage ,
+ coconut oil ,
+ oil ,
+ cumin seeds (jeera) ,
+ mustard seeds ( rai / sarson) ,
+ curry leaves (kadi patta) ,
+ chopped onions ,
+ chopped green chillies ,
+ grated ginger (adrak) ,
+ boiled green peas ,
+ chopped tomatoes ,
+ turmeric powder (haldi) ,
+ salt ,
+ chopped coriander</t>
+  </si>
+  <si>
+    <t>To make cabbage masala, heat the oil in a deep non-stick kadhai. Add the cumin seeds, mustard seeds and curry leaves and cook on medium heat for a few seconds.,
+cabbage masala,
+Add onions, green chillies, adrak and cook on medium heat for 2 to 3 minutes.,
+Add cabbage, green peas, tomatoes, turmeric powder, salt and cover and cook for 8 to 10 minutes, stirring occasionally.,
+Serve cabbage masala hot garnished with coriander.,
+cabbage masala</t>
+  </si>
+  <si>
+    <t>Energy: 74 cal,
+ Protein: 3.2 g,
+ Carbohydrates: 9.3 g,
+ Fiber: 4.3 g,
+ Fat: 2.7 g,
+ Cholesterol: 0 mg,
+ Sodium: 19.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-masala---healthy-sabzi-39683r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: shredded cabbage -
+ chopped tomatoes </t>
+  </si>
+  <si>
+    <t>38904</t>
+  </si>
+  <si>
+    <t>Bhindi in Peanut Masala</t>
+  </si>
+  <si>
+    <t>chopped ladies finger (bhindi) ,
+ coconut oil ,
+ oil ,
+ asafoetida (hing) ,
+ salt ,
+ crushed peanuts ,
+ grated coconut ,
+ chopped coriander (dhania) ,
+ dried mango powder (amchur) ,
+ chopped green chillies ,
+ coriander-cumin seeds (dhania-jeera) powder ,
+ chopped garlic (lehsun) ,
+ turmeric powder (haldi) ,
+ salt</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>To make peanut masala in a bowl mix peanuts, coconut, coriander, amchur, green chillies, coriander cumin seeds powder, garlic, haldi, salt and mix well.,
+peanut masala,
+To make bhindi peanut masala recipe, heat the oil in a kadhai, add the asafoetida and sauté on a slow flame for 15 seconds.,
+bhindi peanut masala recipe,
+Add the ladies finger, mix well and cook on a medium flame for 4 to 5 minutes or till the ladies finger are soft, while stirring occasionally.,
+Add the prepared peanut masala and salt, mix well and cook on a medium flame for another 2 minutes, while stirring occasionally.,
+Serve bhindi peanut masala recipe hot.,
+bhindi peanut masala recipe</t>
+  </si>
+  <si>
+    <t>Energy: 167 cal,
+ Protein: 4.5 g,
+ Carbohydrates: 6.5 g,
+ Fiber: 4.1 g,
+ Fat: 14.2 g,
+ Cholesterol: 0 mg,
+ Sodium: 9.4 mg</t>
+  </si>
+  <si>
+    <t>Diabetes,
+Diabetes,
+Hypertension,
+Hypertension,
+PCOS,
+Allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bhindi-in-peanut-masala-38904r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ crushed peanuts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ chopped garlic (lehsun) </t>
+  </si>
+  <si>
+    <t>42250</t>
+  </si>
+  <si>
+    <t>Nimki Recipe, Bengali Jar Snack</t>
+  </si>
+  <si>
+    <t>plain flour (maida) ,
+ cumin seeds (jeera) ,
+ nigella seeds (kalonji) ,
+ ghee ,
+ salt ,
+ oil ,
+ plain flour (maida) ,
+ ghee</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>To make nimki, combine the plain flour, cumin seeds, nigella seeds, ghee and salt in a deep bowl and mix well.,
+nimki,
+Knead into a semi-stiff dough using enough water.,
+Cover with a lid and keep aside for 30 minutes.,
+Knead the dough again and roll into a 250 mm. (10”) diameter circle without using any flour for rolling.,
+Apply the prepared paste evenly over it.,
+Start rolling tightly from one end to another end.,
+Cut into 13 equal portions using a sharp knife.,
+Place a portion on a rolling board, where the swirled part in facing sideways and press it lightly.,
+Roll into a 125 mm. (5”) diameter circle without using any flour for rolling. And prick using a fork.,
+Fold into half to form a semi- circle and fold again to form a triangle and press the 2 corners lightly using your index finger.,
+Prick using a fork on both the sides.,
+Heat the oil in a deep non-stick pan and deep-fry a few nimkis on a slow medium flame till they turn golden brown in colour from both the sides. Drain on an absorbent paper.,
+Cool the nimki completely and store in an air-tight container.,
+nimki</t>
+  </si>
+  <si>
+    <t>Energy: 83 cal,
+ Protein: 0.8 g,
+ Carbohydrates: 5.1 g,
+ Fiber: 0 g,
+ Fat: 6.6 g,
+ Cholesterol: 0 mg,
+ Sodium: 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/nimki-recipe-bengali-jar-snack-42250r</t>
+  </si>
+  <si>
+    <t>5642</t>
+  </si>
+  <si>
+    <t>Quick Green Pea Snack</t>
+  </si>
+  <si>
+    <t>boiled green peas ,
+ low fat butter ,
+ freshly ground black pepper (kalimirch) ,
+ chilli powder ,
+ dried ginger powder (sonth) ,
+ sugar ,
+ salt ,
+ dried mango powder (amchur) ,
+ cumin seeds (jeera) powder ,
+ chopped mint leaves (phudina) ,
+ lemon juice</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>To make quick green pea snack, heat the butter in a broad non-stick pan, add the green peas, black pepper powder, chilli powder, dried ginger powder, sugar and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.,
+quick green pea snack,
+Add the dried mango powder and cumin seeds powder, mix well and cook on a medium flame for 1 minute.,
+Remove from the flame, add the mint leaves and lemon juice and mix well.,
+Serve the quick green pea snack immediately.,
+quick green pea snack</t>
+  </si>
+  <si>
+    <t>Energy: 80 cal,
+ Protein: 5.1 g,
+ Carbohydrates: 12 g,
+ Fiber: 6.2 g,
+ Fat: 1.3 g,
+ Cholesterol: 3.8 mg,
+ Sodium: 17.9 mg</t>
+  </si>
+  <si>
+    <t>Hypertension,
+PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quick-green-pea-snack-5642r</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>Corn and Capsicum Tikki, Sweet Corn Veg Tikki</t>
+  </si>
+  <si>
+    <t>sweet corn kernels (makai ke dane) ,
+ chopped capsicum ,
+ chopped green chillies ,
+ rice flour (chawal ka atta) ,
+ salt ,
+ oil ,
+ green chutney</t>
+  </si>
+  <si>
+    <t>To make corn and capsicum tikki, blend the corn in a mixer to a coarse paste, without using any water.,
+corn and capsicum tikki,
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.,
+Divide the mixture into 8 equal portions and roll each portion into a round flat tikki.,
+Heat the oil in a deep non-stick kadhai and deep-fry a few tikkis at a time, till they turn golden brown in colour from all the sides.,
+Drain the corn and capsicum tikki on an absorbent paper and serve immediately with green chutney.,
+corn and capsicum tikki</t>
+  </si>
+  <si>
+    <t>Energy: 80 cal,
+ Protein: 1 g,
+ Carbohydrates: 7.6 g,
+ Fiber: 0.8 g,
+ Fat: 5.3 g,
+ Cholesterol: 0 mg,
+ Sodium: 1.6 mg</t>
+  </si>
+  <si>
+    <t>Hypothyroidism,
+Hypertension,
+PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/corn-and-capsicum-tikki-sweet-corn-veg-tikki-2900r</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>Masala Puri ( Gujarati Recipe)</t>
+  </si>
+  <si>
+    <t>whole wheat flour (gehun ka atta) ,
+ turmeric powder (haldi) ,
+ asafoetida (hing) ,
+ chilli powder ,
+ oil ,
+ salt ,
+ oil ,
+ curd (dahi)</t>
+  </si>
+  <si>
+    <t>To make masala puri, combine all the ingredients in a bowl and knead into a firm dough using enough water. Keep aside for 15 to 20 minutes.,
+masala puri,
+Divide the dough into 24 equal portions and roll out each portion into a 75 mm. (3") diameter circle.,
+Heat the oil in a kadhai and deep-fry the masala puris one at a time on a high flame till they are golden brown in colour from both the sides.,
+masala puris,
+Serve the masala puris hot with fresh curds.,
+masala puris</t>
+  </si>
+  <si>
+    <t>Energy: 47 cal,
+ Protein: 0.7 g,
+ Carbohydrates: 3.9 g,
+ Fiber: 0.6 g,
+ Fat: 3.2 g,
+ Cholesterol: 0 mg,
+ Sodium: 1.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/masala-puri--gujarati-recipe-627r</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Paneer Bhurji</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>mashed paneer (cottage cheese) ,
+ oil ,
+ cumin seeds (jeera) ,
+ chopped onions ,
+ chopped tomatoes ,
+ pav bhaji masala ,
+ turmeric powder (haldi) ,
+ chilli powder ,
+ chopped green chillies ,
+ chopped coriander (dhania) ,
+ salt</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>To make paneer bhurji, heat the oil on a tava (griddle) and add the cumin seeds.,
+paneer bhurji,
+When the seeds crackle, add the onions and sauté on a high flame for 1 to 2 minutes.,
+Add the tomatoes, 2 tbsp of water, mix well and cook on a slow flame for 2 to 3 minutes, while stirring continuously.,
+Add the pav bhaji masala, turmeric powder, chilli powder, green chillies and 1 tbsp of water, mix well and cook on a medium flame for 1 to 2 minutes, while stirring continuously.,
+Add the paneer, salt and coriander and 1 tbsp of water, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.,
+Serve the paneer bhurji hot.,
+paneer bhurji</t>
+  </si>
+  <si>
+    <t>Energy: 370 cal,
+ Protein: 10.4 g,
+ Carbohydrates: 10.8 g,
+ Fiber: 0.9 g,
+ Fat: 31.7 g,
+ Cholesterol: 0 mg,
+ Sodium: 7.2 mg</t>
+  </si>
+  <si>
+    <t>Hypothyroidism,
+Hypertension,
+Hypertension,
+PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/paneer-bhurji-190r</t>
+  </si>
+  <si>
+    <t>7445</t>
+  </si>
+  <si>
+    <t>Minty Couscous</t>
+  </si>
+  <si>
+    <t>chopped mint leaves (phudina) ,
+ couscous ,
+ low fat milk ,
+ chopped tomatoes ,
+ chopped spring onions ,
+ chopped coriander (dhania) ,
+ olive oil ,
+ lemon juice ,
+ salt</t>
+  </si>
+  <si>
+    <t>To make minty couscous, clean and wash the couscous thoroughly.,
+minty couscous,
+Combine the couscous and milk in a deep non-stick pan, mix well and cook on a medium flame for 3 to 4 minutes or till it is tender. Keep aside to cool slightly.,
+Combine all the ingredients, including the cooked couscous, in a deep bowl and mix gently.,
+Refrigerate for at least half an hour.,
+Serve the minty couscous chilled.,
+minty couscous</t>
+  </si>
+  <si>
+    <t>Energy: 134 cal,
+ Protein: 5.1 g,
+ Carbohydrates: 21.8 g,
+ Fiber: 1.9 g,
+ Fat: 2.8 g,
+ Cholesterol: 0 mg,
+ Sodium: 31.1 mg</t>
+  </si>
+  <si>
+    <t>Hypothyroidism,
+Hypertension,
+Hypertension,
+PCOS,
+Allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/minty-couscous-7445r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ low fat milk </t>
+  </si>
+  <si>
+    <t>42889</t>
+  </si>
+  <si>
+    <t>Lemon Pound Cake, Tea Time Pound Cake</t>
+  </si>
+  <si>
+    <t>soft butter ,
+ powdered sugar ,
+ lemon juice ,
+ lemon rind ,
+ vanilla essence ,
+ yellow gel food colour ,
+ eggs ,
+ plain flour (maida) ,
+ baking powder ,
+ baking soda ,
+ milk ,
+ icing sugar ,
+ milk ,
+ lemon juice</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>To make lemon pound cake, grease and dust the tin and keep it aside.,
+lemon pound cake,
+In a deep bowl, add soft butter and whisk using a hand beater till it turns soft and fluffy.,
+Add powdered sugar and beat using the hand beater for 1 more minute.,
+Once the sugar and butter are creamed well, add the lemon juice, lemon zest, vanilla essence and yellow gel food colour and beat using the hand beater for 10 seconds.,
+Add eggs one by one by while beating simultaneously.,
+Sieve the plain flour, baking powder and baking soda in the same bowl and fold in using a spatula.,
+Add the milk, gently fold in using a spatula and pour into the greased and dusted tin.,
+Bake in a preheated oven at 180°c (360°f) for 30 to 40 minutes.,
+Remove and keep aside to cool. Run knife around the sides and invert the cake carefully and demould it.,
+In a bowl, add icing sugar.,
+Add lemon juice and 2 tbsp milk.,
+Mix well using whisk and keep aside.,
+Drizzle the glaze over the lemon pound cake and serve.,
+lemon pound cake</t>
+  </si>
+  <si>
+    <t>Energy: 404 cal,
+ Protein: 6.3 g,
+ Carbohydrates: 55.8 g,
+ Fiber: 0.2 g,
+ Fat: 17.3 g,
+ Cholesterol: 43.8 mg,
+ Sodium: 339.1 mg</t>
+  </si>
+  <si>
+    <t>Hypertension,
+Allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lemon-pound-cake-tea-time-pound-cake-42889r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ eggs -
+ milk -
+ milk </t>
+  </si>
+  <si>
+    <t>40794</t>
+  </si>
+  <si>
+    <t>Chocolate Brownies , Chocolate Brownies with Eggs</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>chopped dark chocolate ,
+ butter ,
+ eggs ,
+ castor sugar ,
+ plain flour (maida) ,
+ baking powder ,
+ vanilla essence ,
+ chopped walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>To make the chocolate brownies, melt the chocolate and butter in a microwave safe bowl and microwave on high for 2 minutes. Mix well and keep aside.,
+chocolate brownies,
+Combine the plain flour and baking powder in a bowl and keep aside.,
+Combine the eggs and sugar in a deep bowl and beat with an electric beater for 8 minutes.,
+Add the vanilla essence, beat again with an electric beater for 1 minute.,
+Add the chocolate-butter mixture, beat again with an electric beater for 1 minute.,
+Add the plain flour-baking powder mixture and fold gently using a spatula.,
+Add the walnuts and mix well.,
+Pour the mixture into a greased 250 mm. (10”) diameter tin,
+Bake in a pre-heated oven at 180ºc (360ºf) for 50 to 55 minutes.,
+Cool and cut into squares.,
+Store the chocolate brownies in an air-tight container and use as required.,
+chocolate brownies</t>
+  </si>
+  <si>
+    <t>Energy: 295 cal,
+ Protein: 4.7 g,
+ Carbohydrates: 28.5 g,
+ Fiber: 0.1 g,
+ Fat: 20.2 g,
+ Cholesterol: 26.6 mg,
+ Sodium: 89.2 mg</t>
+  </si>
+  <si>
+    <t>Hypertension,
+PCOS,
+Allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/chocolate-brownies--chocolate-brownies-with-eggs-40794r</t>
+  </si>
+  <si>
+    <t>Yes: 
+ eggs -
+ chopped walnuts (akhrot)</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>Aam Chana Achar, Rajasthani Pickle</t>
+  </si>
+  <si>
+    <t>grated raw mango ,
+ kabuli chana (white chick peas) ,
+ turmeric powder (haldi) ,
+ salt ,
+ fenugreek (methi) seeds ,
+ fenugreek seeds (methi) powder ,
+ fennel seeds (saunf) ,
+ asafoetida (hing) ,
+ nigella seeds (kalonji) ,
+ whole dry kashmiri red chillies ,
+ chilli powder ,
+ mustard (rai / sarson) oil</t>
+  </si>
+  <si>
+    <t>To make aam chana achar, combine the raw mango, turmeric powder and salt in a deep bowl, mix well and keep aside for 30 minutes.,
+aam chana achar,
+Squeeze out all the water from the raw mango in a bowl and keep aside. Keep the raw mango water and grated raw mango separately.,
+Refrigerate the grated raw mango overnight.,
+Combine the fenugreek seeds, kabuli chana and raw mango water into a deep bowl, mix well and cover and keep aside overnight.,
+Combine the fenugreek seed powder, fennel seeds, asafoetida, nigella seeds, kashmiri red chillies, chilli powder along the grated raw mango and kabuli chana-fenugreek seeds mixture into a deep bowl, mix well and keep aside.,
+Heat the mustard oil in a deep non-stick kadhai on a medium flame for 3 to 4 minutes or till red hot.,
+Remove from the flame and allow it to cool.,
+Once cooled, add the oil to the prepared mixture and mix well.,
+Bottle the pickle in a sterilized glass jar and keep aside for 6 to 7 days. After 7 days, it is ready to eat.</t>
+  </si>
+  <si>
+    <t>Energy: 95 cal,
+ Protein: 0.5 g,
+ Carbohydrates: 3 g,
+ Fiber: 1 g,
+ Fat: 9.1 g,
+ Cholesterol: 0 mg,
+ Sodium: 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-chana-achar-rajasthani-pickle-3904r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ fennel seeds (saunf) </t>
+  </si>
+  <si>
+    <t>30931</t>
+  </si>
+  <si>
+    <t>Aam ka Achaar, Mango Pickle, Punjabi Achar</t>
+  </si>
+  <si>
+    <t>raw mangoes ,
+ turmeric powder (haldi) ,
+ fennel seeds (saunf) ,
+ split fenugreek seeds (methi na kuria) ,
+ split mustard seeds (rai na kuria) ,
+ nigella seeds (kalonji) ,
+ asafoetida (hing) ,
+ chilli powder ,
+ mustard (rai / sarson) oil ,
+ salt</t>
+  </si>
+  <si>
+    <t>To make aam ka achaar, combine the mangoes, turmeric powder and 2 tbsp of salt and toss well.,
+aam ka achaar,
+Place the mangoes on a sieve, cover with a muslin cloth and place under the sun for 4 to 6 hours.,
+Combine the rest of the ingredients in a bowl and mix well.,
+Add the mangoes and toss well.,
+Bottle the pickle in a sterilised glass jar. Place the pickle under the sun for 4 to 5 days. This aam ka achaar can be stored for upto 1 year.,
+aam ka achaar</t>
+  </si>
+  <si>
+    <t>Energy: 507 cal,
+ Protein: 1.9 g,
+ Carbohydrates: 62 g,
+ Fiber: 6.6 g,
+ Fat: 31.1 g,
+ Cholesterol: 0 mg,
+ Sodium: 6208.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ka-achaar-mango-pickle-punjabi-achar-30931r</t>
+  </si>
+  <si>
+    <t>36291</t>
+  </si>
+  <si>
+    <t>Aam Ke Pakode, Mango Bhajiya</t>
+  </si>
+  <si>
+    <t>mango cubes ,
+ oil ,
+ besan (bengal gram flour) ,
+ rice flour (chawal ka atta) ,
+ carom seeds (ajwain) ,
+ chilli powder ,
+ turmeric powder (haldi) ,
+ asafoetida (hing) ,
+ salt</t>
+  </si>
+  <si>
+    <t>Heat the oil in a deep non-stick pan, dip the mango cubes individually into the batter and deep-fry till they turn golden brown and crisp from all the sides. Drain on an absorbent paper.,
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy: 237 cal,
+ Protein: 5.8 g,
+ Carbohydrates: 27.3 g,
+ Fiber: 4.2 g,
+ Fat: 11.6 g,
+ Cholesterol: 0 mg,
+ Vitamin A: 1273.8 mcg,
+ Vitamin B1: 0.2 mg,
+ Vitamin B2: 0.1 mg,
+ Vitamin B3: 1.1 mg,
+ Vitamin C: 7 mg,
+ Folic Acid: 36.6 mcg,
+ Calcium: 20.3 mg,
+ Iron: 1.9 mg,
+ Magnesium: 0 mg,
+ Phosphorus: 0 mg,
+ Sodium: 28.9 mg,
+ Potassium: 268.4 mg,
+ Zinc: 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ke-pakode-mango-bhajiya-36291r</t>
+  </si>
+  <si>
+    <t>30888</t>
+  </si>
+  <si>
+    <t>Achari Baingan</t>
+  </si>
+  <si>
+    <t>ginger-garlic (adrak-lehsun) paste ,
+ chilli powder ,
+ turmeric powder (haldi) ,
+ salt ,
+ oil ,
+ brinjals (baingan / eggplant) , cut into 1" cubes ,
+ oil ,
+ fennel seeds (saunf) ,
+ mustard seeds ( rai / sarson) ,
+ fenugreek (methi) seeds ,
+ nigella seeds (kalonji) ,
+ cumin seeds (jeera) ,
+ asafoetida (hing) ,
+ oil ,
+ sliced onions ,
+ ginger-garlic (adrak-lehsun) paste ,
+ chopped green chillies ,
+ turmeric powder (haldi) ,
+ chilli powder ,
+ punjabi garam masala ,
+ dried mango powder (amchur) ,
+ salt ,
+ whisked curds (dahi) ,
+ cream ,
+ chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Combine the brinjals with the prepared marinade in a deep bowl and toss gently. Keep aside for 5 minutes.,
+Heat the oil in a kadhai and deep-fry the marinade brinjals in it till they are golden brown in colour from all the sides.,
+Drain on an absorbent paper and keep aside.,
+Combine the fennel seeds, mustard seeds, fenugreek seeds, onion seeds, cumin seeds and asafoetida in a small bowl and keep aside.,
+Heat the oil in a deep pan and add the above mixture.,
+When the seeds crackle, add the onions, ginger-garlic paste and green chillies and sauté on a medium flame for 2 minutes.,
+Add the turmeric powder, chilli powder, punjabi garam masala, dry mango powder and salt and sauté on a medium flame for 2 minutes.,
+Add the curds, fried brinjals and fresh cream, mix gently and cook on a slow flame for 2 to 3 minutes, while stirring continuously.,
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy: 215 cal,
+ Protein: 3.1 g,
+ Carbohydrates: 6 g,
+ Fiber: 4 g,
+ Fat: 19.2 g,
+ Cholesterol: 6 mg,
+ Sodium: 18 mg</t>
+  </si>
+  <si>
+    <t>Diabetes,
+Hypothyroidism,
+Hypertension,
+Hypertension,
+PCOS,
+Allergies</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-baingan-30888r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: ginger-garlic (adrak-lehsun) paste -
+ fennel seeds (saunf) -
+ ginger-garlic (adrak-lehsun) paste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ brinjals (baingan / eggplant) </t>
+  </si>
+  <si>
+    <t>30922</t>
+  </si>
+  <si>
+    <t>Achari Chana Pulao, Pickled Kabuli Chana Pulao</t>
+  </si>
+  <si>
+    <t>aam ka achaar ,
+ boiled kabuli chana (white chick peas) ,
+ long grained rice (basmati) ,
+ ghee ,
+ fennel seeds (saunf) ,
+ mustard seeds ( rai / sarson) ,
+ fenugreek (methi) seeds ,
+ nigella seeds (kalonji) ,
+ black cardamom (badi elaichi) ,
+ cumin seeds (jeera) ,
+ asafoetida (hing) ,
+ sliced onions ,
+ ginger-garlic (adrak-lehsun) paste ,
+ turmeric powder (haldi) ,
+ chilli powder ,
+ garam masala ,
+ salt ,
+ chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>To make achari chana pulao, blend the mango pickle in a mixer to a coarse paste. Keep aside.,
+achari chana pulao,
+Clean, wash and soak the rice for 10 minutes. Drain and keep aside.,
+Heat the ghee in a pressure cooker, add the fennel seeds, mustard seeds, fenugreek seeds, nigella seeds, big cardamom, cumin seeds and asafoetida and sauté on a medium flame for a few seconds.,
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes.,
+Add the ginger-garlic paste, kabuli chana, turmeric powder, chilli powder, garam masala, salt and the prepared pickle paste, mix well and cook on a medium flame for 1 minute.,
+Add the rice, mix well and cook on a medium flame for 1 minute.,
+Add the 2½ cups hot water, mix well and pressure cook for 2 whistles.,
+Allow the steam to escape before opening the lid.,
+Serve achari chana pulao hot garnished with coriander.,
+achari chana pulao</t>
+  </si>
+  <si>
+    <t>Energy: 475 cal,
+ Protein: 6.1 g,
+ Carbohydrates: 66.9 g,
+ Fiber: 5.9 g,
+ Fat: 20.2 g,
+ Cholesterol: 0 mg,
+ Sodium: 7784.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-chana-pulao-pickled-kabuli-chana-pulao-30922r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ fennel seeds (saunf) -
+ ginger-garlic (adrak-lehsun) paste </t>
+  </si>
+  <si>
+    <t>22779</t>
+  </si>
+  <si>
+    <t>Achari Dahi Bhindi, Punjabi Sabji</t>
+  </si>
+  <si>
+    <t>sliced ladies finger (bhindi) ,
+ oil ,
+ fennel seeds (saunf) ,
+ mustard seeds ( rai / sarson) ,
+ nigella seeds (kalonji) ,
+ fenugreek (methi) seeds ,
+ asafoetida (hing) ,
+ chopped ginger (adrak) ,
+ chopped tomatoes ,
+ salt ,
+ whisked curds (dahi) ,
+ chilli powder ,
+ turmeric powder (haldi) ,
+ coriander-cumin seeds (dhania-jeera) powder ,
+ salt ,
+ rotis ,
+ parathas</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>To make achari dahi bhindi, heat 4 tbsp of oil in a broad non-stick pan, add the ladies finger, mix gently and cook on a medium flame for 5 to 6 minutes, while tossing occasionally. Remove in a deep bowl and keep aside.,
+achari dahi bhindi,
+Heat the remaining 1 tbsp of oil in the same broad non-stick pan, add the fennel seeds, mustard seeds, nigella seeds, fenugreek seeds and asafoetida and sauté on a medium flame for a few seconds.,
+Add the ginger and sauté on a medium flame for 30 more seconds.,
+Add the tomatoes, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.,
+Lower the flame, add the curd mixture, mix well and cook for 1 minute, while stirring continuously.,
+Add the shallow-fried ladies finger and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.,
+Serve the achari dahi bhindi hot with rotis or parathas.,
+achari dahi bhindi</t>
+  </si>
+  <si>
+    <t>Energy: 328 cal,
+ Protein: 4.8 g,
+ Carbohydrates: 13.3 g,
+ Fiber: 6.4 g,
+ Fat: 27.6 g,
+ Cholesterol: 5.3 mg,
+ Sodium: 22.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-dahi-bhindi-punjabi--sabji-22779r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: 
+ fennel seeds (saunf) -
+ chopped tomatoes </t>
   </si>
 </sst>
 </file>
@@ -371,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -441,237 +1453,1424 @@
       <c r="U1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="0">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="M2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
+      <c r="Q2" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="R2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="T2" s="0"/>
       <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="J3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>42</v>
-      </c>
       <c r="L3" t="s" s="0">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
+      <c r="Q3" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="R3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="T3" s="0"/>
       <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="H4" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s" s="0">
+      <c r="I4" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="J4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="K4" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="J4" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0"/>
-      <c r="N4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="O4" s="0"/>
-      <c r="P4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="0"/>
-      <c r="R4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="S4" s="0"/>
-      <c r="T4" t="s" s="0">
-        <v>35</v>
-      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" s="0"/>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" s="0"/>
       <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="G5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="I5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="J5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="L5" s="0"/>
+      <c r="M5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R5" s="0"/>
+      <c r="S5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="J5" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s" s="0">
+      <c r="B7" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="C7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="M5" s="0"/>
-      <c r="N5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="O5" s="0"/>
-      <c r="P5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="0"/>
-      <c r="R5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="S5" s="0"/>
-      <c r="T5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="U5" s="0"/>
-      <c r="V5" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I8" s="0"/>
+      <c r="J8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N9" s="0"/>
+      <c r="O9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R9" s="0"/>
+      <c r="S9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N10" s="0"/>
+      <c r="O10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N11" s="0"/>
+      <c r="O11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R11" s="0"/>
+      <c r="S11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="S12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="S13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T13" s="0"/>
+      <c r="U13" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N14" s="0"/>
+      <c r="O14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R14" s="0"/>
+      <c r="S14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R15" s="0"/>
+      <c r="S15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R16" s="0"/>
+      <c r="S16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="L17" s="0"/>
+      <c r="M17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N17" s="0"/>
+      <c r="O17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R17" s="0"/>
+      <c r="S17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P18" s="0"/>
+      <c r="Q18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R18" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R19" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T19" s="0"/>
+      <c r="U19" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R21" s="0"/>
+      <c r="S21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T21" s="0"/>
+      <c r="U21" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N22" s="0"/>
+      <c r="O22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R22" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="S22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N23" s="0"/>
+      <c r="O23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P23" s="0"/>
+      <c r="Q23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R23" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="S23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R24" s="0"/>
+      <c r="S24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N25" s="0"/>
+      <c r="O25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R25" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="S25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T25" s="0"/>
+      <c r="U25" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N26" s="0"/>
+      <c r="O26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P26" s="0"/>
+      <c r="Q26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R26" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="S26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N27" s="0"/>
+      <c r="O27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R27" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="S27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -680,7 +2879,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -750,237 +2949,1424 @@
       <c r="U1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="0">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="M2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
+      <c r="Q2" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="R2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="T2" s="0"/>
       <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="J3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>42</v>
-      </c>
       <c r="L3" t="s" s="0">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
+      <c r="Q3" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="R3" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="T3" s="0"/>
       <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s" s="0">
+      <c r="H4" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s" s="0">
+      <c r="I4" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="J4" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="K4" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="J4" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0"/>
-      <c r="N4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="O4" s="0"/>
-      <c r="P4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="0"/>
-      <c r="R4" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="S4" s="0"/>
-      <c r="T4" t="s" s="0">
-        <v>35</v>
-      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" s="0"/>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" s="0"/>
       <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="G5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="H5" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="I5" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="J5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="L5" s="0"/>
+      <c r="M5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R5" s="0"/>
+      <c r="S5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="J5" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s" s="0">
+      <c r="B7" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="C7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="M5" s="0"/>
-      <c r="N5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="O5" s="0"/>
-      <c r="P5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="0"/>
-      <c r="R5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="S5" s="0"/>
-      <c r="T5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="U5" s="0"/>
-      <c r="V5" s="0"/>
+      <c r="F7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I8" s="0"/>
+      <c r="J8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N9" s="0"/>
+      <c r="O9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R9" s="0"/>
+      <c r="S9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N10" s="0"/>
+      <c r="O10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N11" s="0"/>
+      <c r="O11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R11" s="0"/>
+      <c r="S11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="S12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R13" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="S13" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T13" s="0"/>
+      <c r="U13" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N14" s="0"/>
+      <c r="O14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R14" s="0"/>
+      <c r="S14" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R15" s="0"/>
+      <c r="S15" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R16" s="0"/>
+      <c r="S16" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="L17" s="0"/>
+      <c r="M17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N17" s="0"/>
+      <c r="O17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R17" s="0"/>
+      <c r="S17" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P18" s="0"/>
+      <c r="Q18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R18" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S18" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R19" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T19" s="0"/>
+      <c r="U19" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R21" s="0"/>
+      <c r="S21" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T21" s="0"/>
+      <c r="U21" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N22" s="0"/>
+      <c r="O22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R22" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="S22" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N23" s="0"/>
+      <c r="O23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P23" s="0"/>
+      <c r="Q23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R23" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="S23" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R24" s="0"/>
+      <c r="S24" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N25" s="0"/>
+      <c r="O25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R25" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="S25" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T25" s="0"/>
+      <c r="U25" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N26" s="0"/>
+      <c r="O26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P26" s="0"/>
+      <c r="Q26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R26" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="S26" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="L27" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N27" s="0"/>
+      <c r="O27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R27" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="S27" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -989,7 +4375,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1059,125 +4445,621 @@
       <c r="U1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="0">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>24</v>
-      </c>
       <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="I2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="J2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="K2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="L2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="M2" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N2" s="0"/>
       <c r="O2" s="0"/>
       <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
+      <c r="Q2" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="R2" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="T2" s="0"/>
       <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="J3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>42</v>
-      </c>
       <c r="L3" t="s" s="0">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s" s="0">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
+      <c r="Q3" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="R3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="S3" t="s" s="0">
+      <c r="B4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="T3" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
+      <c r="C4" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N6" s="0"/>
+      <c r="O6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="L8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N9" s="0"/>
+      <c r="O9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="S9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N10" s="0"/>
+      <c r="O10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R10" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="S10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N11" s="0"/>
+      <c r="O11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="S11" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N12" s="0"/>
+      <c r="O12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R12" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="S12" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1186,7 +5068,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1256,8 +5138,339 @@
       <c r="U1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="0">
-        <v>21</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R2" s="0"/>
+      <c r="S2" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T2" s="0"/>
+      <c r="U2" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T3" s="0"/>
+      <c r="U3" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" s="0"/>
+      <c r="U4" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" t="s" s="0">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R6" s="0"/>
+      <c r="S6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T6" s="0"/>
+      <c r="U6" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Lists/ListOfRecipes.xlsx
+++ b/src/test/resources/Lists/ListOfRecipes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="79">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -80,16 +80,227 @@
     <t>Allergies</t>
   </si>
   <si>
+    <t>3554</t>
+  </si>
+  <si>
+    <t>Cabbage Jowar Muthias</t>
+  </si>
+  <si>
+    <t>Snack/Lunch</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>grated cabbage ,
+ jowar (white millet) flour ,
+ low fat curds (dahi) ,
+ chopped coriander (dhania) ,
+ lemon juice ,
+ ginger-green chilli paste ,
+ garlic (lehsun) paste ,
+ turmeric powder (haldi) ,
+ asafoetida (hing) ,
+ salt ,
+ oil ,
+ cumin seeds (jeera) ,
+ curry leaves (kadi patta) ,
+ chopped coriander (dhania) ,
+ green chutney</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>29 mins</t>
+  </si>
+  <si>
+    <t>To make cabbage jowar muthias, combine the cabbage, jowar flour, curds, coriander, lemon juice, ginger-green chilli paste, garlic paste, turmeric powder, ¼ tsp of asafoetida and salt in a deep bowl and knead into a soft dough using approx. ¼ cup of water.,
+cabbage jowar muthias,
+Divide the dough into 2 equal portions and shape each portion into 125 mm. (5") cylindrical roll.,
+Arrange both the rolls on a greased sieve and steam in a steamer for 20 to 25 minutes. Allow it to cool completely.,
+Once cooled, cut each roll into 13 mm. (½”) thick slices and keep aside.,
+Heat the oil in a broad non-stick pan and add the cumin seeds.,
+When the seeds crackle, add the remaining ¼ tsp of asafoetida and curry leaves and sauté for a few seconds.,
+Add the sliced muthias, mix well and cook on a medium flame for 2 to 3 minutes or till they turn light brown in colour, while tossing gently and occasionally.,
+Garnish the cabbage jowar muthias with coriander and serve hot with green chutney.,
+cabbage jowar muthias</t>
+  </si>
+  <si>
+    <t>Energy: 146 cal,
+ Protein: 4.6 g,
+ Carbohydrates: 26.4 g,
+ Fiber: 4.1 g,
+ Fat: 2.4 g,
+ Cholesterol: 0 mg,
+ Sodium: 16.3 mg</t>
+  </si>
+  <si>
+    <t>Diabetes,
+Hypertension,
+Hypertension</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-jowar-muthias-3554r</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes: grated cabbage -
+ garlic (lehsun) paste </t>
+  </si>
+  <si>
+    <t>33147</t>
+  </si>
+  <si>
+    <t>Cabbage Jowar Muthias, How To Make Muthia At Home</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>grated cabbage ,
+ jowar (white millet) flour ,
+ curd (dahi) ,
+ chopped coriander (dhania) ,
+ lemon juice ,
+ ginger-green chilli paste ,
+ garlic (lehsun) paste ,
+ turmeric powder (haldi) ,
+ asafoetida (hing) ,
+ sugar ,
+ salt ,
+ oil ,
+ cumin seeds (jeera) ,
+ curry leaves (kadi patta) ,
+ chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>To make cabbage jowar muthias, combine the cabbage, jowar flour, curds, coriander, lemon juice, ginger-green chilli paste, garlic paste, turmeric powder, ¼ tsp of asafoetida, sugar and salt in a deep bowl and knead into a soft dough using approx. ¼ cup of water.,
+cabbage jowar muthias,
+Divide the dough into 2 equal portions and shape each portion into 125 mm. (5") cylindrical roll.,
+Arrange both the rolls on a greased sieve and steam in a steamer for 20 to 25 minutes. Allow it to cool completely.,
+Once cooled, cut each roll into 13 mm. (½”) thick slices and keep aside.,
+Heat the oil in a broad non-stick pan and add the cumin seeds.,
+When the seeds crackle, add the remaining ¼ tsp of asafoetida and curry leaves and sauté for a few seconds.,
+Add the sliced cabbage jowar muthias, mix well and cook on a medium flame for 2 to 3 minutes or till they turn light brown in colour, while tossing gently and occasionally.,
+cabbage jowar muthias,
+Garnish the cabbage jowar muthias with coriander and serve hot with green chutney.,
+cabbage jowar muthias</t>
+  </si>
+  <si>
+    <t>Energy: 347 cal,
+ Protein: 7 g,
+ Carbohydrates: 47.6 g,
+ Fiber: 6.1 g,
+ Fat: 13.7 g,
+ Cholesterol: 4 mg,
+ Sodium: 16.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cabbage-jowar-muthias-how-to-make-muthia-at-home-33147r</t>
+  </si>
+  <si>
+    <t>22358</t>
+  </si>
+  <si>
+    <t>Jowar Pyaz ki Roti, Low Acidity Recipe</t>
+  </si>
+  <si>
+    <t>jowar (white millet) flour ,
+ chopped spring onions whites ,
+ green chilli paste ,
+ oil ,
+ salt ,
+ jowar (white millet) flour ,
+ oil</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>To make jowar pyaz ki roti, combine all the ingredients in a deep bowl and knead into a soft dough using enough hot water.,
+jowar pyaz ki roti,
+Divide the dough into 4 equal portions and roll each portion into a 150 mm. (6") diameter thick circle using a little jowar flour for rolling.,
+Heat a non-stick tava (griddle) and cook each roti, using ¼ tsp of oil, till brown spots appear on both the sides.,
+Serve the jowar pyaz ki roti immediately.,
+jowar pyaz ki roti</t>
+  </si>
+  <si>
+    <t>Energy: 110 cal,
+ Protein: 2.7 g,
+ Carbohydrates: 18.2 g,
+ Fiber: 2.5 g,
+ Fat: 3 g,
+ Cholesterol: 0 mg,
+ Sodium: 2.1 mg</t>
+  </si>
+  <si>
+    <t>Diabetes,
+Hypothyroidism,
+Hypertension,
+PCOS</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-pyaz-ki-roti-low-acidity-recipe-22358r</t>
+  </si>
+  <si>
+    <t>42672</t>
+  </si>
+  <si>
+    <t>Jowar and Moong Dal Khichdi</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>jowar (white millet) ,
+ yellow moong dal (split yellow gram) ,
+ salt ,
+ ghee ,
+ cumin seeds (jeera) ,
+ asafoetida (hing) ,
+ turmeric powder (haldi)</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>24 mins</t>
+  </si>
+  <si>
+    <t>To make jowar and moong dal khichdi, clean, wash and soak the jowar in enough water in a deep bowl overnight or at least for 10 hours.,
+jowar and moong dal khichdi,
+Next day, drain it and discard the water.,
+Combine the jowar, moong dal, salt and 2 ½ cups of water in a pressure cooker, mix well and pressure cook for 7 whistles.,
+Allow the steam to escape before opening the lid. Keep aside.,
+For the tempering, heat the ghee in a small non-stick pan and add the cumin seeds.,
+When the seeds crackle, add the asafoetida, turmeric powder and sauté for a few seconds.,
+Add the tempering to the khichdi, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.,
+Serve the jowar and moong dal khichdi immediately.,
+jowar and moong dal khichdi</t>
+  </si>
+  <si>
+    <t>Energy: 160 cal,
+ Protein: 6.8 g,
+ Carbohydrates: 26.3 g,
+ Fiber: 3.5 g,
+ Fat: 3.1 g,
+ Cholesterol: 0 mg,
+ Sodium: 6.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-and-moong-dal-khichdi-42672r</t>
+  </si>
+  <si>
     <t>7445</t>
   </si>
   <si>
     <t>Minty Couscous</t>
-  </si>
-  <si>
-    <t>Snack/Lunch</t>
-  </si>
-  <si>
-    <t>Veg</t>
   </si>
   <si>
     <t>chopped mint leaves (phudina) ,
@@ -103,9 +314,6 @@
  salt</t>
   </si>
   <si>
-    <t>10 mins</t>
-  </si>
-  <si>
     <t>4 mins</t>
   </si>
   <si>
@@ -133,9 +341,6 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/minty-couscous-7445r</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Yes: 
@@ -200,9 +405,6 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/masala-chawli-3883r</t>
-  </si>
-  <si>
-    <t>Add</t>
   </si>
   <si>
     <t xml:space="preserve">Yes: 
@@ -254,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -360,25 +562,23 @@
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="M2" s="0"/>
+        <v>32</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="N2" s="0"/>
-      <c r="O2" t="s" s="0">
-        <v>32</v>
-      </c>
+      <c r="O2" s="0"/>
       <c r="P2" s="0"/>
       <c r="Q2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
-      <c r="U2" t="s" s="0">
-        <v>34</v>
-      </c>
+      <c r="U2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -388,54 +588,374 @@
         <v>36</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>24</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="J3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>43</v>
-      </c>
       <c r="L3" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="0"/>
-      <c r="O3" t="s" s="0">
-        <v>32</v>
-      </c>
+      <c r="O3" s="0"/>
       <c r="P3" s="0"/>
       <c r="Q3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="S3" t="s" s="0">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S3" s="0"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" s="0"/>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R5" s="0"/>
+      <c r="S5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="L8" s="0"/>
+      <c r="M8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R8" s="0"/>
+      <c r="S8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N9" s="0"/>
+      <c r="O9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R9" s="0"/>
+      <c r="S9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -444,7 +964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -550,25 +1070,23 @@
         <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="M2" s="0"/>
+        <v>32</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>33</v>
+      </c>
       <c r="N2" s="0"/>
-      <c r="O2" t="s" s="0">
-        <v>32</v>
-      </c>
+      <c r="O2" s="0"/>
       <c r="P2" s="0"/>
       <c r="Q2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
-      <c r="U2" t="s" s="0">
-        <v>34</v>
-      </c>
+      <c r="U2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -578,54 +1096,374 @@
         <v>36</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>24</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="I3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="J3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="J3" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>43</v>
-      </c>
       <c r="L3" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="0"/>
-      <c r="O3" t="s" s="0">
-        <v>32</v>
-      </c>
+      <c r="O3" s="0"/>
       <c r="P3" s="0"/>
       <c r="Q3" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="S3" t="s" s="0">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S3" s="0"/>
       <c r="T3" s="0"/>
       <c r="U3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" s="0"/>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R5" s="0"/>
+      <c r="S5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R6" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R7" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="S7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="L8" s="0"/>
+      <c r="M8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R8" s="0"/>
+      <c r="S8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N9" s="0"/>
+      <c r="O9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R9" s="0"/>
+      <c r="S9" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -634,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -707,10 +1545,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>23</v>
@@ -719,48 +1557,154 @@
         <v>24</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="0"/>
-      <c r="O2" t="s" s="0">
-        <v>32</v>
-      </c>
+      <c r="O2" s="0"/>
       <c r="P2" s="0"/>
       <c r="Q2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s" s="0">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S2" s="0"/>
       <c r="T2" s="0"/>
       <c r="U2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="R4" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -842,10 +1786,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>23</v>
@@ -854,25 +1798,25 @@
         <v>24</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>26</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>20</v>
@@ -880,19 +1824,19 @@
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="0"/>
       <c r="Q2" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
       <c r="U2" t="s" s="0">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
